--- a/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9524" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9524" uniqueCount="896">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:27:19+00:00</t>
+    <t>2024-02-09T16:53:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1534,6 +1534,9 @@
   </si>
   <si>
     <t>ECLAIREoutcomeMeasureR5</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout ette extension implemente l'élément outcomeMeasure de R5. elle permet l'ajout des conséquences principales et secondaires de l'essai. Cette extension implemente l’élément outcomeMeasure de R5 http://hl7.org/fhir/R5/researchstudy-definitions.html#ResearchStudy.outcomeMeasure</t>
   </si>
   <si>
     <t>Extension.extension:name</t>
@@ -4179,7 +4182,7 @@
         <v>22</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>297</v>
+        <v>490</v>
       </c>
     </row>
     <row r="166">
@@ -4263,7 +4266,7 @@
         <v>2</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="177">
@@ -4271,7 +4274,7 @@
         <v>4</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="178">
@@ -4287,7 +4290,7 @@
         <v>8</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="180">
@@ -4347,7 +4350,7 @@
         <v>22</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="188">
@@ -4431,7 +4434,7 @@
         <v>2</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="199">
@@ -4439,7 +4442,7 @@
         <v>4</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="200">
@@ -4455,7 +4458,7 @@
         <v>8</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="202">
@@ -4515,7 +4518,7 @@
         <v>22</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="210">
@@ -4551,7 +4554,7 @@
         <v>30</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="215">
@@ -4559,7 +4562,7 @@
         <v>32</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="216">
@@ -4591,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="220">
@@ -4599,7 +4602,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="221">
@@ -4615,7 +4618,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="223">
@@ -4675,7 +4678,7 @@
         <v>22</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="231">
@@ -4759,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="242">
@@ -4767,7 +4770,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="243">
@@ -4783,7 +4786,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="245">
@@ -4843,7 +4846,7 @@
         <v>22</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="253">
@@ -4935,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="265">
@@ -4951,7 +4954,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="267">
@@ -5079,7 +5082,7 @@
         <v>38</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="284">
@@ -5095,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="286">
@@ -5103,7 +5106,7 @@
         <v>4</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="287">
@@ -5119,7 +5122,7 @@
         <v>8</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="289">
@@ -5179,7 +5182,7 @@
         <v>22</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="297">
@@ -17502,7 +17505,7 @@
         <v>31</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>297</v>
+        <v>490</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -17781,13 +17784,13 @@
         <v>487</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>88</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E120" t="s" s="2">
         <v>76</v>
@@ -17812,7 +17815,7 @@
         <v>89</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>90</v>
@@ -17886,7 +17889,7 @@
         <v>487</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>303</v>
@@ -17989,7 +17992,7 @@
         <v>487</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>305</v>
@@ -18092,7 +18095,7 @@
         <v>487</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>307</v>
@@ -18135,7 +18138,7 @@
       </c>
       <c r="R123" s="2"/>
       <c r="S123" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T123" t="s" s="2">
         <v>76</v>
@@ -18197,7 +18200,7 @@
         <v>487</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>309</v>
@@ -18331,7 +18334,7 @@
         <v>89</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>90</v>
@@ -18779,7 +18782,7 @@
       </c>
       <c r="Z129" s="2"/>
       <c r="AA129" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AB129" t="s" s="2">
         <v>76</v>
@@ -18817,13 +18820,13 @@
         <v>487</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>88</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E130" t="s" s="2">
         <v>76</v>
@@ -18848,7 +18851,7 @@
         <v>89</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>90</v>
@@ -18922,7 +18925,7 @@
         <v>487</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>303</v>
@@ -19025,7 +19028,7 @@
         <v>487</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C132" t="s" s="2">
         <v>305</v>
@@ -19128,7 +19131,7 @@
         <v>487</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>307</v>
@@ -19171,7 +19174,7 @@
       </c>
       <c r="R133" s="2"/>
       <c r="S133" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T133" t="s" s="2">
         <v>76</v>
@@ -19233,7 +19236,7 @@
         <v>487</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C134" t="s" s="2">
         <v>309</v>
@@ -19259,7 +19262,7 @@
         <v>76</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>102</v>
@@ -19336,13 +19339,13 @@
         <v>487</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>88</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E135" t="s" s="2">
         <v>76</v>
@@ -19367,7 +19370,7 @@
         <v>89</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N135" t="s" s="2">
         <v>90</v>
@@ -19441,7 +19444,7 @@
         <v>487</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>303</v>
@@ -19544,7 +19547,7 @@
         <v>487</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>305</v>
@@ -19647,7 +19650,7 @@
         <v>487</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>307</v>
@@ -19690,7 +19693,7 @@
       </c>
       <c r="R138" s="2"/>
       <c r="S138" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="T138" t="s" s="2">
         <v>76</v>
@@ -19752,7 +19755,7 @@
         <v>487</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>309</v>
@@ -19778,7 +19781,7 @@
         <v>76</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>102</v>
@@ -20060,7 +20063,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>31</v>
@@ -20095,7 +20098,7 @@
         <v>31</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -20163,7 +20166,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>82</v>
@@ -20266,7 +20269,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>88</v>
@@ -20369,7 +20372,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>95</v>
@@ -20415,7 +20418,7 @@
       </c>
       <c r="R145" s="2"/>
       <c r="S145" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="T145" t="s" s="2">
         <v>76</v>
@@ -20474,7 +20477,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>100</v>
@@ -20577,17 +20580,17 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
@@ -20609,13 +20612,13 @@
         <v>79</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
@@ -20665,7 +20668,7 @@
         <v>76</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>77</v>
@@ -20682,13 +20685,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20787,13 +20790,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20890,13 +20893,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20995,13 +20998,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -21100,13 +21103,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -21205,13 +21208,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -21310,13 +21313,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -21415,16 +21418,16 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B155" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C155" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="D155" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E155" t="s" s="2">
         <v>76</v>
@@ -21446,13 +21449,13 @@
         <v>76</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -21520,16 +21523,16 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D156" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E156" t="s" s="2">
         <v>76</v>
@@ -21551,13 +21554,13 @@
         <v>76</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -21625,16 +21628,16 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D157" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E157" t="s" s="2">
         <v>76</v>
@@ -21656,13 +21659,13 @@
         <v>76</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -21730,16 +21733,16 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D158" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E158" t="s" s="2">
         <v>76</v>
@@ -21761,13 +21764,13 @@
         <v>76</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -21835,16 +21838,16 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D159" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E159" t="s" s="2">
         <v>76</v>
@@ -21866,13 +21869,13 @@
         <v>76</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -21940,13 +21943,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -22043,13 +22046,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -22146,13 +22149,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -22192,7 +22195,7 @@
       </c>
       <c r="R162" s="2"/>
       <c r="S162" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="T162" t="s" s="2">
         <v>76</v>
@@ -22251,13 +22254,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -22280,7 +22283,7 @@
         <v>76</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M163" t="s" s="2">
         <v>102</v>
@@ -22354,13 +22357,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>487</v>
@@ -22385,13 +22388,13 @@
         <v>76</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -22459,13 +22462,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>294</v>
@@ -22490,13 +22493,13 @@
         <v>76</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
@@ -22564,13 +22567,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -22671,13 +22674,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -22703,14 +22706,14 @@
         <v>184</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q167" t="s" s="2">
         <v>76</v>
@@ -22747,10 +22750,10 @@
         <v>76</v>
       </c>
       <c r="AC167" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AD167" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AE167" t="s" s="2">
         <v>76</v>
@@ -22759,7 +22762,7 @@
         <v>93</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>77</v>
@@ -22776,16 +22779,16 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D168" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E168" t="s" s="2">
         <v>76</v>
@@ -22810,14 +22813,14 @@
         <v>184</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q168" t="s" s="2">
         <v>76</v>
@@ -22866,7 +22869,7 @@
         <v>76</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>77</v>
@@ -22883,13 +22886,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22986,13 +22989,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -23091,13 +23094,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -23123,16 +23126,16 @@
         <v>150</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P171" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q171" t="s" s="2">
         <v>76</v>
@@ -23142,7 +23145,7 @@
         <v>76</v>
       </c>
       <c r="T171" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="U171" t="s" s="2">
         <v>76</v>
@@ -23160,10 +23163,10 @@
         <v>119</v>
       </c>
       <c r="Z171" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA171" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AB171" t="s" s="2">
         <v>76</v>
@@ -23181,7 +23184,7 @@
         <v>76</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>77</v>
@@ -23198,13 +23201,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -23230,16 +23233,16 @@
         <v>118</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P172" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Q172" t="s" s="2">
         <v>76</v>
@@ -23267,10 +23270,10 @@
         <v>248</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AA172" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AB172" t="s" s="2">
         <v>76</v>
@@ -23288,7 +23291,7 @@
         <v>76</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>77</v>
@@ -23305,13 +23308,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -23337,16 +23340,16 @@
         <v>96</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P173" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Q173" t="s" s="2">
         <v>76</v>
@@ -23359,7 +23362,7 @@
         <v>76</v>
       </c>
       <c r="U173" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="V173" t="s" s="2">
         <v>76</v>
@@ -23395,7 +23398,7 @@
         <v>76</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>77</v>
@@ -23412,13 +23415,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -23444,13 +23447,13 @@
         <v>84</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" t="s" s="2">
@@ -23464,7 +23467,7 @@
         <v>76</v>
       </c>
       <c r="U174" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="V174" t="s" s="2">
         <v>76</v>
@@ -23500,7 +23503,7 @@
         <v>76</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>77</v>
@@ -23517,13 +23520,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -23549,10 +23552,10 @@
         <v>267</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>270</v>
@@ -23605,7 +23608,7 @@
         <v>76</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>77</v>
@@ -23622,13 +23625,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -23725,13 +23728,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -23830,13 +23833,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -23859,16 +23862,16 @@
         <v>133</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P178" s="2"/>
       <c r="Q178" t="s" s="2">
@@ -23918,7 +23921,7 @@
         <v>76</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>77</v>
@@ -23927,7 +23930,7 @@
         <v>83</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>104</v>
@@ -23935,13 +23938,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23964,23 +23967,23 @@
         <v>133</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R179" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>76</v>
@@ -24025,7 +24028,7 @@
         <v>76</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>77</v>
@@ -24034,7 +24037,7 @@
         <v>83</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>104</v>
@@ -24042,13 +24045,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -24074,13 +24077,13 @@
         <v>447</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P180" s="2"/>
       <c r="Q180" t="s" s="2">
@@ -24130,7 +24133,7 @@
         <v>76</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>77</v>
@@ -24147,16 +24150,16 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D181" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E181" t="s" s="2">
         <v>76</v>
@@ -24181,14 +24184,14 @@
         <v>184</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q181" t="s" s="2">
         <v>76</v>
@@ -24237,7 +24240,7 @@
         <v>76</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>77</v>
@@ -24254,13 +24257,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -24357,13 +24360,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -24462,13 +24465,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -24494,16 +24497,16 @@
         <v>150</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P184" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q184" t="s" s="2">
         <v>76</v>
@@ -24513,7 +24516,7 @@
         <v>76</v>
       </c>
       <c r="T184" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="U184" t="s" s="2">
         <v>76</v>
@@ -24531,10 +24534,10 @@
         <v>119</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA184" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AB184" t="s" s="2">
         <v>76</v>
@@ -24552,7 +24555,7 @@
         <v>76</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>77</v>
@@ -24569,13 +24572,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -24601,16 +24604,16 @@
         <v>118</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P185" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Q185" t="s" s="2">
         <v>76</v>
@@ -24638,10 +24641,10 @@
         <v>248</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AA185" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AB185" t="s" s="2">
         <v>76</v>
@@ -24659,7 +24662,7 @@
         <v>76</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>77</v>
@@ -24676,13 +24679,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -24708,16 +24711,16 @@
         <v>96</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P186" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Q186" t="s" s="2">
         <v>76</v>
@@ -24730,7 +24733,7 @@
         <v>76</v>
       </c>
       <c r="U186" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="V186" t="s" s="2">
         <v>76</v>
@@ -24766,7 +24769,7 @@
         <v>76</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>77</v>
@@ -24783,13 +24786,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -24815,13 +24818,13 @@
         <v>84</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
@@ -24835,7 +24838,7 @@
         <v>76</v>
       </c>
       <c r="U187" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="V187" t="s" s="2">
         <v>76</v>
@@ -24871,7 +24874,7 @@
         <v>76</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>77</v>
@@ -24888,13 +24891,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -24920,10 +24923,10 @@
         <v>267</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>270</v>
@@ -24976,7 +24979,7 @@
         <v>76</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>77</v>
@@ -24993,13 +24996,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -25025,13 +25028,13 @@
         <v>447</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O189" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
@@ -25081,7 +25084,7 @@
         <v>76</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>77</v>
@@ -25098,13 +25101,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -25130,10 +25133,10 @@
         <v>84</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>215</v>
@@ -25186,7 +25189,7 @@
         <v>76</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>77</v>
@@ -25203,13 +25206,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -25232,13 +25235,13 @@
         <v>133</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>283</v>
@@ -25291,7 +25294,7 @@
         <v>76</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>77</v>
@@ -25308,17 +25311,17 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" t="s" s="2">
@@ -25337,19 +25340,19 @@
         <v>133</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>283</v>
       </c>
       <c r="P192" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Q192" t="s" s="2">
         <v>76</v>
@@ -25398,7 +25401,7 @@
         <v>76</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>77</v>
@@ -25415,13 +25418,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -25447,10 +25450,10 @@
         <v>150</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>215</v>
@@ -25482,10 +25485,10 @@
         <v>119</v>
       </c>
       <c r="Z193" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AA193" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AB193" t="s" s="2">
         <v>76</v>
@@ -25503,7 +25506,7 @@
         <v>76</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>83</v>
@@ -25520,13 +25523,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -25552,10 +25555,10 @@
         <v>118</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>246</v>
@@ -25587,10 +25590,10 @@
         <v>248</v>
       </c>
       <c r="Z194" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AA194" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AB194" t="s" s="2">
         <v>76</v>
@@ -25608,7 +25611,7 @@
         <v>76</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>77</v>
@@ -25625,13 +25628,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -25657,10 +25660,10 @@
         <v>118</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>246</v>
@@ -25693,7 +25696,7 @@
       </c>
       <c r="Z195" s="2"/>
       <c r="AA195" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AB195" t="s" s="2">
         <v>76</v>
@@ -25711,7 +25714,7 @@
         <v>76</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>77</v>
@@ -25728,13 +25731,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -25760,10 +25763,10 @@
         <v>118</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>246</v>
@@ -25796,7 +25799,7 @@
       </c>
       <c r="Z196" s="2"/>
       <c r="AA196" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AB196" t="s" s="2">
         <v>76</v>
@@ -25814,7 +25817,7 @@
         <v>76</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>77</v>
@@ -25831,13 +25834,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25863,10 +25866,10 @@
         <v>118</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>246</v>
@@ -25898,7 +25901,7 @@
         <v>210</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>76</v>
@@ -25919,7 +25922,7 @@
         <v>76</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>77</v>
@@ -25936,13 +25939,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25968,10 +25971,10 @@
         <v>118</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>246</v>
@@ -26003,10 +26006,10 @@
         <v>210</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AA198" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AB198" t="s" s="2">
         <v>76</v>
@@ -26015,7 +26018,7 @@
         <v>76</v>
       </c>
       <c r="AD198" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AE198" t="s" s="2">
         <v>76</v>
@@ -26024,7 +26027,7 @@
         <v>93</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>77</v>
@@ -26041,16 +26044,16 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E199" t="s" s="2">
         <v>76</v>
@@ -26075,10 +26078,10 @@
         <v>118</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>246</v>
@@ -26110,10 +26113,10 @@
         <v>210</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AA199" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AB199" t="s" s="2">
         <v>76</v>
@@ -26131,7 +26134,7 @@
         <v>76</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>77</v>
@@ -26148,13 +26151,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -26195,7 +26198,7 @@
         <v>76</v>
       </c>
       <c r="T200" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="U200" t="s" s="2">
         <v>76</v>
@@ -26251,13 +26254,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -26356,13 +26359,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -26388,16 +26391,16 @@
         <v>345</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O202" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P202" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Q202" t="s" s="2">
         <v>76</v>
@@ -26446,7 +26449,7 @@
         <v>76</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>77</v>
@@ -26463,13 +26466,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -26566,13 +26569,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -26671,13 +26674,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26703,16 +26706,16 @@
         <v>96</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="P205" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Q205" t="s" s="2">
         <v>76</v>
@@ -26722,7 +26725,7 @@
         <v>76</v>
       </c>
       <c r="T205" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="U205" t="s" s="2">
         <v>76</v>
@@ -26761,7 +26764,7 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>77</v>
@@ -26778,13 +26781,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26810,13 +26813,13 @@
         <v>84</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
@@ -26866,7 +26869,7 @@
         <v>76</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>77</v>
@@ -26883,13 +26886,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26915,16 +26918,16 @@
         <v>150</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>215</v>
       </c>
       <c r="P207" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Q207" t="s" s="2">
         <v>76</v>
@@ -26973,7 +26976,7 @@
         <v>76</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>77</v>
@@ -26990,13 +26993,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -27022,16 +27025,16 @@
         <v>84</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>215</v>
       </c>
       <c r="P208" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Q208" t="s" s="2">
         <v>76</v>
@@ -27080,7 +27083,7 @@
         <v>76</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>77</v>
@@ -27097,13 +27100,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -27129,16 +27132,16 @@
         <v>189</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="P209" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="Q209" t="s" s="2">
         <v>76</v>
@@ -27187,7 +27190,7 @@
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>77</v>
@@ -27204,13 +27207,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -27236,16 +27239,16 @@
         <v>84</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="P210" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Q210" t="s" s="2">
         <v>76</v>
@@ -27294,7 +27297,7 @@
         <v>76</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>77</v>
@@ -27311,16 +27314,16 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D211" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E211" t="s" s="2">
         <v>76</v>
@@ -27345,10 +27348,10 @@
         <v>118</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>246</v>
@@ -27380,10 +27383,10 @@
         <v>210</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AA211" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AB211" t="s" s="2">
         <v>76</v>
@@ -27401,7 +27404,7 @@
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
@@ -27418,13 +27421,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -27465,7 +27468,7 @@
         <v>76</v>
       </c>
       <c r="T212" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="U212" t="s" s="2">
         <v>76</v>
@@ -27521,13 +27524,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -27626,13 +27629,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -27658,16 +27661,16 @@
         <v>345</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O214" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P214" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Q214" t="s" s="2">
         <v>76</v>
@@ -27716,7 +27719,7 @@
         <v>76</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>77</v>
@@ -27733,13 +27736,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -27765,16 +27768,16 @@
         <v>84</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="O215" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="P215" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Q215" t="s" s="2">
         <v>76</v>
@@ -27823,7 +27826,7 @@
         <v>76</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>77</v>
@@ -27840,13 +27843,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27869,13 +27872,13 @@
         <v>133</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -27926,7 +27929,7 @@
         <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
@@ -27943,13 +27946,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -28046,13 +28049,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -28151,13 +28154,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B219" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="C219" t="s" s="2">
         <v>780</v>
-      </c>
-      <c r="C219" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="D219" t="s" s="2">
         <v>114</v>
@@ -28182,10 +28185,10 @@
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N219" t="s" s="2">
         <v>117</v>
@@ -28256,13 +28259,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>3</v>
@@ -28287,10 +28290,10 @@
         <v>76</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="N220" t="s" s="2">
         <v>23</v>
@@ -28361,13 +28364,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D221" t="s" s="2">
         <v>105</v>
@@ -28392,10 +28395,10 @@
         <v>76</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N221" t="s" s="2">
         <v>108</v>
@@ -28466,13 +28469,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D222" t="s" s="2">
         <v>109</v>
@@ -28497,10 +28500,10 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N222" t="s" s="2">
         <v>112</v>
@@ -28571,13 +28574,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -28603,13 +28606,13 @@
         <v>84</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
@@ -28659,7 +28662,7 @@
         <v>76</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
@@ -28676,13 +28679,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28708,10 +28711,10 @@
         <v>375</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
@@ -28762,7 +28765,7 @@
         <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
@@ -28779,13 +28782,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28808,16 +28811,16 @@
         <v>76</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="P225" s="2"/>
       <c r="Q225" t="s" s="2">
@@ -28867,7 +28870,7 @@
         <v>76</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
@@ -28884,13 +28887,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28916,10 +28919,10 @@
         <v>118</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>246</v>
@@ -28951,7 +28954,7 @@
         <v>210</v>
       </c>
       <c r="Z226" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>76</v>
@@ -28972,7 +28975,7 @@
         <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>77</v>
@@ -28989,13 +28992,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -29021,10 +29024,10 @@
         <v>118</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>246</v>
@@ -29056,10 +29059,10 @@
         <v>248</v>
       </c>
       <c r="Z227" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AA227" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AB227" t="s" s="2">
         <v>76</v>
@@ -29077,7 +29080,7 @@
         <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>77</v>
@@ -29094,13 +29097,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -29123,16 +29126,16 @@
         <v>76</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P228" s="2"/>
       <c r="Q228" t="s" s="2">
@@ -29182,7 +29185,7 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
@@ -29199,17 +29202,17 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" t="s" s="2">
@@ -29228,16 +29231,16 @@
         <v>133</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="O229" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="P229" s="2"/>
       <c r="Q229" t="s" s="2">
@@ -29287,7 +29290,7 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
@@ -29304,17 +29307,17 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
@@ -29336,10 +29339,10 @@
         <v>267</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>270</v>
@@ -29392,7 +29395,7 @@
         <v>76</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
@@ -29409,13 +29412,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -29512,13 +29515,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -29617,13 +29620,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -29646,16 +29649,16 @@
         <v>133</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O233" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
@@ -29705,7 +29708,7 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
@@ -29714,7 +29717,7 @@
         <v>83</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AK233" t="s" s="2">
         <v>104</v>
@@ -29722,13 +29725,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29751,23 +29754,23 @@
         <v>133</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O234" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P234" s="2"/>
       <c r="Q234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R234" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="S234" t="s" s="2">
         <v>76</v>
@@ -29812,7 +29815,7 @@
         <v>76</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>77</v>
@@ -29821,7 +29824,7 @@
         <v>83</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AK234" t="s" s="2">
         <v>104</v>
@@ -29829,13 +29832,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -29861,10 +29864,10 @@
         <v>447</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>283</v>
@@ -29917,7 +29920,7 @@
         <v>76</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>77</v>
@@ -29934,13 +29937,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -29963,13 +29966,13 @@
         <v>133</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>283</v>
@@ -30022,7 +30025,7 @@
         <v>76</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>77</v>
@@ -30039,13 +30042,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -30068,13 +30071,13 @@
         <v>133</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>283</v>
@@ -30127,7 +30130,7 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>77</v>
@@ -30144,13 +30147,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -30176,10 +30179,10 @@
         <v>118</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>246</v>
@@ -30211,10 +30214,10 @@
         <v>210</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>76</v>
@@ -30232,7 +30235,7 @@
         <v>76</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>77</v>
@@ -30249,13 +30252,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -30278,16 +30281,16 @@
         <v>76</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="O239" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="P239" s="2"/>
       <c r="Q239" t="s" s="2">
@@ -30337,7 +30340,7 @@
         <v>76</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>77</v>
@@ -30354,13 +30357,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -30386,10 +30389,10 @@
         <v>230</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
@@ -30440,7 +30443,7 @@
         <v>76</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>77</v>
@@ -30457,13 +30460,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -30560,13 +30563,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -30665,13 +30668,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -30772,13 +30775,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -30804,10 +30807,10 @@
         <v>84</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>215</v>
@@ -30860,7 +30863,7 @@
         <v>76</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>83</v>
@@ -30877,13 +30880,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
@@ -30909,10 +30912,10 @@
         <v>118</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>246</v>
@@ -30965,7 +30968,7 @@
         <v>76</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>77</v>
@@ -30982,13 +30985,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -31014,10 +31017,10 @@
         <v>84</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>215</v>
@@ -31070,7 +31073,7 @@
         <v>76</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>77</v>
@@ -31087,13 +31090,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -31119,10 +31122,10 @@
         <v>230</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O247" s="2"/>
       <c r="P247" s="2"/>
@@ -31173,7 +31176,7 @@
         <v>76</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>77</v>
@@ -31190,13 +31193,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -31293,13 +31296,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -31398,13 +31401,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -31505,13 +31508,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -31537,10 +31540,10 @@
         <v>84</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>215</v>
@@ -31593,7 +31596,7 @@
         <v>76</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>77</v>
@@ -31610,13 +31613,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -31642,10 +31645,10 @@
         <v>118</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>246</v>
@@ -31677,10 +31680,10 @@
         <v>154</v>
       </c>
       <c r="Z252" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AA252" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AB252" t="s" s="2">
         <v>76</v>
@@ -31698,7 +31701,7 @@
         <v>76</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>77</v>
@@ -31715,7 +31718,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>31</v>
@@ -31750,7 +31753,7 @@
         <v>31</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
@@ -31818,7 +31821,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>82</v>
@@ -31921,7 +31924,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>88</v>
@@ -32024,7 +32027,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>95</v>
@@ -32070,7 +32073,7 @@
       </c>
       <c r="R256" s="2"/>
       <c r="S256" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="T256" t="s" s="2">
         <v>76</v>
@@ -32129,7 +32132,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>100</v>
@@ -32158,7 +32161,7 @@
         <v>76</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M257" t="s" s="2">
         <v>102</v>
@@ -32232,7 +32235,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>31</v>
@@ -32267,7 +32270,7 @@
         <v>31</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O258" s="2"/>
       <c r="P258" s="2"/>
@@ -32335,7 +32338,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>82</v>
@@ -32438,7 +32441,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>88</v>
@@ -32541,7 +32544,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>95</v>
@@ -32587,7 +32590,7 @@
       </c>
       <c r="R261" s="2"/>
       <c r="S261" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="T261" t="s" s="2">
         <v>76</v>
@@ -32646,7 +32649,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>100</v>
@@ -33104,7 +33107,7 @@
       </c>
       <c r="R266" s="2"/>
       <c r="S266" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="T266" t="s" s="2">
         <v>76</v>
@@ -33266,7 +33269,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>31</v>
@@ -33301,7 +33304,7 @@
         <v>31</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" s="2"/>
@@ -33369,7 +33372,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>82</v>
@@ -33472,7 +33475,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>88</v>
@@ -33575,7 +33578,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>95</v>
@@ -33621,7 +33624,7 @@
       </c>
       <c r="R271" s="2"/>
       <c r="S271" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="T271" t="s" s="2">
         <v>76</v>
@@ -33680,7 +33683,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>100</v>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:53:12+00:00</t>
+    <t>2024-02-10T11:32:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T11:32:40+00:00</t>
+    <t>2024-02-12T07:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T07:45:47+00:00</t>
+    <t>2024-02-12T07:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T07:58:20+00:00</t>
+    <t>2024-02-12T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1536,7 +1536,7 @@
     <t>ECLAIREoutcomeMeasureR5</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout ette extension implemente l'élément outcomeMeasure de R5. elle permet l'ajout des conséquences principales et secondaires de l'essai. Cette extension implemente l’élément outcomeMeasure de R5 http://hl7.org/fhir/R5/researchstudy-definitions.html#ResearchStudy.outcomeMeasure</t>
+    <t>Extension créée dans le cadre du projet API ECLAIRE, afin de permettre l'ajout des conséquences principales et secondaires de l'essai. Cette extension implemente l’élément outcomeMeasure de R5 http://hl7.org/fhir/R5/researchstudy-definitions.html#ResearchStudy.outcomeMeasure</t>
   </si>
   <si>
     <t>Extension.extension:name</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T09:03:44+00:00</t>
+    <t>2024-02-12T09:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
